--- a/Soil_Fert_N_Crop_Uptake/15N_N_Uptake_MaturitySummed.xlsx
+++ b/Soil_Fert_N_Crop_Uptake/15N_N_Uptake_MaturitySummed.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\15N-and-Phenols-California\Soil_Fert_N_Crop_Uptake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\UC Davis\School Work\Linquist Lab\Data\R stats\Phenols and 15N\Phenols and 15 Analysis\Crop Soil N and Fert N\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
-    <sheet name="15N_N_Uptake_MaturitySummed_202" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="76">
   <si>
     <t>Sample.ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>PrePlant</t>
-  </si>
-  <si>
     <t>207 212 PI</t>
   </si>
   <si>
@@ -249,55 +246,13 @@
     <t>601 606 minus  M</t>
   </si>
   <si>
-    <t>207 212 Pre</t>
-  </si>
-  <si>
-    <t>107 112 Pre</t>
-  </si>
-  <si>
-    <t>307 312 Pre</t>
-  </si>
-  <si>
-    <t>101 106 Pre</t>
-  </si>
-  <si>
-    <t>201 206 Pre</t>
-  </si>
-  <si>
-    <t>301 306 Pre</t>
-  </si>
-  <si>
-    <t>407 412 Pre</t>
-  </si>
-  <si>
-    <t>507 512 Pre</t>
-  </si>
-  <si>
-    <t>607 612 Pre</t>
-  </si>
-  <si>
-    <t>401 406 Pre</t>
-  </si>
-  <si>
-    <t>501 506 Pre</t>
-  </si>
-  <si>
-    <t>601 606 Pre</t>
-  </si>
-  <si>
     <t>Days</t>
-  </si>
-  <si>
-    <t>Days_graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,9 +730,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1099,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,10 +1064,9 @@
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,18 +1089,15 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1159,27 +1109,24 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>48.456609749999998</v>
+      </c>
+      <c r="G2">
+        <v>53.98136349</v>
+      </c>
+      <c r="H2">
+        <v>46</v>
+      </c>
+      <c r="I2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2021</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1191,27 +1138,24 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>36.958979929999998</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>49.57674549</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I3">
         <v>2021</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1223,30 +1167,27 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>41.859505650000003</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>60.0041449</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I4">
         <v>2021</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1255,30 +1196,27 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>46.692595310000002</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>71.385686840000005</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I5">
         <v>2021</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1287,30 +1225,27 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>36.242395330000001</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>62.108745319999997</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <v>2021</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1319,27 +1254,24 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>37.795252599999998</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>48.275034390000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I7">
         <v>2021</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1348,30 +1280,27 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1">
-        <v>48.456609749999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>53.98136349</v>
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>10.993053959999999</v>
+      </c>
+      <c r="G8">
+        <v>71.92630063</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <v>2021</v>
       </c>
-      <c r="J8">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1380,30 +1309,27 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
-        <v>36.958979929999998</v>
-      </c>
-      <c r="G9" s="1">
-        <v>49.57674549</v>
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>9.7868573889999997</v>
+      </c>
+      <c r="G9">
+        <v>65.79253156</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>2021</v>
       </c>
-      <c r="J9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1412,126 +1338,114 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>41.859505650000003</v>
-      </c>
-      <c r="G10" s="1">
-        <v>60.0041449</v>
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>9.1883067440000001</v>
+      </c>
+      <c r="G10">
+        <v>59.79759018</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>2021</v>
       </c>
-      <c r="J10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1">
-        <v>46.692595310000002</v>
-      </c>
-      <c r="G11" s="1">
-        <v>71.385686840000005</v>
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>9.3008362170000005</v>
+      </c>
+      <c r="G11">
+        <v>80.876320370000002</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>2021</v>
       </c>
-      <c r="J11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1">
-        <v>36.242395330000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>62.108745319999997</v>
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>10.049376909999999</v>
+      </c>
+      <c r="G12">
+        <v>73.550579290000002</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I12">
         <v>2021</v>
       </c>
-      <c r="J12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1">
-        <v>37.795252599999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>48.275034390000002</v>
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>8.7388397680000001</v>
+      </c>
+      <c r="G13">
+        <v>72.23870221</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>2021</v>
       </c>
-      <c r="J13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1540,16 +1454,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10.993053959999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>71.92630063</v>
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>53.8483904</v>
+      </c>
+      <c r="G14">
+        <v>76.913491739999998</v>
       </c>
       <c r="H14">
         <v>81</v>
@@ -1557,13 +1471,10 @@
       <c r="I14">
         <v>2021</v>
       </c>
-      <c r="J14">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1572,16 +1483,16 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1">
-        <v>9.7868573889999997</v>
-      </c>
-      <c r="G15" s="1">
-        <v>65.79253156</v>
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>40.463634759999998</v>
+      </c>
+      <c r="G15">
+        <v>74.457225109999996</v>
       </c>
       <c r="H15">
         <v>81</v>
@@ -1589,13 +1500,10 @@
       <c r="I15">
         <v>2021</v>
       </c>
-      <c r="J15">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1604,16 +1512,16 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9.1883067440000001</v>
-      </c>
-      <c r="G16" s="1">
-        <v>59.79759018</v>
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <v>36.860172089999999</v>
+      </c>
+      <c r="G16">
+        <v>70.258810179999998</v>
       </c>
       <c r="H16">
         <v>81</v>
@@ -1621,31 +1529,28 @@
       <c r="I16">
         <v>2021</v>
       </c>
-      <c r="J16">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9.3008362170000005</v>
-      </c>
-      <c r="G17" s="1">
-        <v>80.876320370000002</v>
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>51.045246589999998</v>
+      </c>
+      <c r="G17">
+        <v>94.678355929999995</v>
       </c>
       <c r="H17">
         <v>81</v>
@@ -1653,31 +1558,28 @@
       <c r="I17">
         <v>2021</v>
       </c>
-      <c r="J17">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10.049376909999999</v>
-      </c>
-      <c r="G18" s="1">
-        <v>73.550579290000002</v>
+        <v>51</v>
+      </c>
+      <c r="F18">
+        <v>27.230695999999998</v>
+      </c>
+      <c r="G18">
+        <v>80.920679579999998</v>
       </c>
       <c r="H18">
         <v>81</v>
@@ -1685,31 +1587,28 @@
       <c r="I18">
         <v>2021</v>
       </c>
-      <c r="J18">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="1">
-        <v>8.7388397680000001</v>
-      </c>
-      <c r="G19" s="1">
-        <v>72.23870221</v>
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <v>38.142425639999999</v>
+      </c>
+      <c r="G19">
+        <v>90.094295599999995</v>
       </c>
       <c r="H19">
         <v>81</v>
@@ -1717,13 +1616,10 @@
       <c r="I19">
         <v>2021</v>
       </c>
-      <c r="J19">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1732,30 +1628,27 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="1">
-        <v>53.8483904</v>
-      </c>
-      <c r="G20" s="1">
-        <v>76.913491739999998</v>
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>10.226019880000001</v>
+      </c>
+      <c r="G20">
+        <v>81.166926709999998</v>
       </c>
       <c r="H20">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I20">
         <v>2021</v>
       </c>
-      <c r="J20">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1764,30 +1657,27 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="1">
-        <v>40.463634759999998</v>
-      </c>
-      <c r="G21" s="1">
-        <v>74.457225109999996</v>
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>8.8605936889999999</v>
+      </c>
+      <c r="G21">
+        <v>93.741127860000006</v>
       </c>
       <c r="H21">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I21">
         <v>2021</v>
       </c>
-      <c r="J21">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1796,126 +1686,114 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="1">
-        <v>36.860172089999999</v>
-      </c>
-      <c r="G22" s="1">
-        <v>70.258810179999998</v>
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>9.1351929379999994</v>
+      </c>
+      <c r="G22">
+        <v>76.861070179999999</v>
       </c>
       <c r="H22">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I22">
         <v>2021</v>
       </c>
-      <c r="J22">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="1">
-        <v>51.045246589999998</v>
-      </c>
-      <c r="G23" s="1">
-        <v>94.678355929999995</v>
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>11.522722890000001</v>
+      </c>
+      <c r="G23">
+        <v>102.57282120000001</v>
       </c>
       <c r="H23">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I23">
         <v>2021</v>
       </c>
-      <c r="J23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="1">
-        <v>27.230695999999998</v>
-      </c>
-      <c r="G24" s="1">
-        <v>80.920679579999998</v>
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>11.34159966</v>
+      </c>
+      <c r="G24">
+        <v>96.998447440000007</v>
       </c>
       <c r="H24">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I24">
         <v>2021</v>
       </c>
-      <c r="J24">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="1">
-        <v>38.142425639999999</v>
-      </c>
-      <c r="G25" s="1">
-        <v>90.094295599999995</v>
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <v>7.6178828699999999</v>
+      </c>
+      <c r="G25">
+        <v>94.443685509999995</v>
       </c>
       <c r="H25">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I25">
         <v>2021</v>
       </c>
-      <c r="J25">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1924,30 +1802,27 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10.226019880000001</v>
-      </c>
-      <c r="G26" s="1">
-        <v>81.166926709999998</v>
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>58.050675339999998</v>
+      </c>
+      <c r="G26">
+        <v>100.93940379999999</v>
       </c>
       <c r="H26">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I26">
         <v>2021</v>
       </c>
-      <c r="J26">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1956,30 +1831,27 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="1">
-        <v>8.8605936889999999</v>
-      </c>
-      <c r="G27" s="1">
-        <v>93.741127860000006</v>
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>42.529626780000001</v>
+      </c>
+      <c r="G27">
+        <v>91.603644560000006</v>
       </c>
       <c r="H27">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I27">
         <v>2021</v>
       </c>
-      <c r="J27">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1988,318 +1860,288 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="1">
-        <v>9.1351929379999994</v>
-      </c>
-      <c r="G28" s="1">
-        <v>76.861070179999999</v>
+        <v>31</v>
+      </c>
+      <c r="F28">
+        <v>49.350979819999999</v>
+      </c>
+      <c r="G28">
+        <v>89.771148260000004</v>
       </c>
       <c r="H28">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I28">
         <v>2021</v>
       </c>
-      <c r="J28">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="1">
-        <v>11.522722890000001</v>
-      </c>
-      <c r="G29" s="1">
-        <v>102.57282120000001</v>
+        <v>31</v>
+      </c>
+      <c r="F29">
+        <v>56.074809739999999</v>
+      </c>
+      <c r="G29">
+        <v>122.773552</v>
       </c>
       <c r="H29">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I29">
         <v>2021</v>
       </c>
-      <c r="J29">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="1">
-        <v>11.34159966</v>
-      </c>
-      <c r="G30" s="1">
-        <v>96.998447440000007</v>
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <v>50.638280809999998</v>
+      </c>
+      <c r="G30">
+        <v>109.0810986</v>
       </c>
       <c r="H30">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I30">
         <v>2021</v>
       </c>
-      <c r="J30">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="1">
-        <v>7.6178828699999999</v>
-      </c>
-      <c r="G31" s="1">
-        <v>94.443685509999995</v>
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <v>47.325111630000002</v>
+      </c>
+      <c r="G31">
+        <v>111.0633732</v>
       </c>
       <c r="H31">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I31">
         <v>2021</v>
       </c>
-      <c r="J31">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="1">
-        <v>58.050675339999998</v>
-      </c>
-      <c r="G32" s="1">
-        <v>100.93940379999999</v>
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>30.791318279999999</v>
+      </c>
+      <c r="G32">
+        <v>42.211302609999997</v>
       </c>
       <c r="H32">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I32">
-        <v>2021</v>
-      </c>
-      <c r="J32">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="1">
-        <v>42.529626780000001</v>
-      </c>
-      <c r="G33" s="1">
-        <v>91.603644560000006</v>
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>32.00176562</v>
+      </c>
+      <c r="G33">
+        <v>65.049376850000002</v>
       </c>
       <c r="H33">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I33">
-        <v>2021</v>
-      </c>
-      <c r="J33">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="1">
-        <v>49.350979819999999</v>
-      </c>
-      <c r="G34" s="1">
-        <v>89.771148260000004</v>
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>31.185752430000001</v>
+      </c>
+      <c r="G34">
+        <v>39.294062779999997</v>
       </c>
       <c r="H34">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I34">
-        <v>2021</v>
-      </c>
-      <c r="J34">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1">
-        <v>56.074809739999999</v>
-      </c>
-      <c r="G35" s="1">
-        <v>122.773552</v>
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>42.751977449999998</v>
+      </c>
+      <c r="G35">
+        <v>66.692307600000007</v>
       </c>
       <c r="H35">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I35">
-        <v>2021</v>
-      </c>
-      <c r="J35">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="1">
-        <v>50.638280809999998</v>
-      </c>
-      <c r="G36" s="1">
-        <v>109.0810986</v>
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>43.153193539999997</v>
+      </c>
+      <c r="G36">
+        <v>65.642413259999998</v>
       </c>
       <c r="H36">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I36">
-        <v>2021</v>
-      </c>
-      <c r="J36">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="1">
-        <v>47.325111630000002</v>
-      </c>
-      <c r="G37" s="1">
-        <v>111.0633732</v>
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>43.780628880000002</v>
+      </c>
+      <c r="G37">
+        <v>74.266585800000001</v>
       </c>
       <c r="H37">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="I37">
-        <v>2021</v>
-      </c>
-      <c r="J37">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2308,30 +2150,27 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F38">
+        <v>5.5828199889999999</v>
+      </c>
+      <c r="G38">
+        <v>30.988325039999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>2022</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2340,30 +2179,27 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F39">
+        <v>8.9348219740000001</v>
+      </c>
+      <c r="G39">
+        <v>58.143600970000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>2022</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2372,126 +2208,114 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F40">
+        <v>4.9297276449999998</v>
+      </c>
+      <c r="G40">
+        <v>41.720807729999997</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>2022</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F41">
+        <v>12.03002165</v>
+      </c>
+      <c r="G41">
+        <v>76.478500240000002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I41">
         <v>2022</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F42">
+        <v>11.46994168</v>
+      </c>
+      <c r="G42">
+        <v>71.890897469999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I42">
         <v>2022</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <v>13.080727189999999</v>
+      </c>
+      <c r="G43">
+        <v>89.964779800000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I43">
         <v>2022</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2503,27 +2327,24 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="1">
-        <v>30.791318279999999</v>
-      </c>
-      <c r="G44" s="1">
-        <v>42.211302609999997</v>
+        <v>51</v>
+      </c>
+      <c r="F44">
+        <v>36.570543129999997</v>
+      </c>
+      <c r="G44">
+        <v>63.169658869999999</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I44">
         <v>2022</v>
       </c>
-      <c r="J44">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2535,27 +2356,24 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="1">
-        <v>32.00176562</v>
-      </c>
-      <c r="G45" s="1">
-        <v>65.049376850000002</v>
+        <v>51</v>
+      </c>
+      <c r="F45">
+        <v>35.862522509999998</v>
+      </c>
+      <c r="G45">
+        <v>93.656294169999995</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I45">
         <v>2022</v>
       </c>
-      <c r="J45">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2567,30 +2385,27 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="1">
-        <v>31.185752430000001</v>
-      </c>
-      <c r="G46" s="1">
-        <v>39.294062779999997</v>
+        <v>51</v>
+      </c>
+      <c r="F46">
+        <v>33.811514379999998</v>
+      </c>
+      <c r="G46">
+        <v>61.071369240000003</v>
       </c>
       <c r="H46">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I46">
         <v>2022</v>
       </c>
-      <c r="J46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2599,30 +2414,27 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="1">
-        <v>42.751977449999998</v>
-      </c>
-      <c r="G47" s="1">
-        <v>66.692307600000007</v>
+        <v>51</v>
+      </c>
+      <c r="F47">
+        <v>32.922491630000003</v>
+      </c>
+      <c r="G47">
+        <v>79.909845489999995</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I47">
         <v>2022</v>
       </c>
-      <c r="J47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -2631,30 +2443,27 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="1">
-        <v>43.153193539999997</v>
-      </c>
-      <c r="G48" s="1">
-        <v>65.642413259999998</v>
+        <v>51</v>
+      </c>
+      <c r="F48">
+        <v>41.569603499999999</v>
+      </c>
+      <c r="G48">
+        <v>79.814399420000001</v>
       </c>
       <c r="H48">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I48">
         <v>2022</v>
       </c>
-      <c r="J48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -2663,27 +2472,24 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="1">
-        <v>43.780628880000002</v>
-      </c>
-      <c r="G49" s="1">
-        <v>74.266585800000001</v>
+        <v>51</v>
+      </c>
+      <c r="F49">
+        <v>43.551548359999998</v>
+      </c>
+      <c r="G49">
+        <v>104.3227358</v>
       </c>
       <c r="H49">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>2022</v>
       </c>
-      <c r="J49">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2692,30 +2498,27 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="1">
-        <v>5.5828199889999999</v>
-      </c>
-      <c r="G50" s="1">
-        <v>30.988325039999999</v>
+        <v>31</v>
+      </c>
+      <c r="F50">
+        <v>7.4747269950000002</v>
+      </c>
+      <c r="G50">
+        <v>62.666963590000002</v>
       </c>
       <c r="H50">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I50">
         <v>2022</v>
       </c>
-      <c r="J50">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2724,30 +2527,27 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="1">
-        <v>8.9348219740000001</v>
-      </c>
-      <c r="G51" s="1">
-        <v>58.143600970000001</v>
+        <v>31</v>
+      </c>
+      <c r="F51">
+        <v>9.7050746859999997</v>
+      </c>
+      <c r="G51">
+        <v>83.853165700000005</v>
       </c>
       <c r="H51">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I51">
         <v>2022</v>
       </c>
-      <c r="J51">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2756,126 +2556,114 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="1">
-        <v>4.9297276449999998</v>
-      </c>
-      <c r="G52" s="1">
-        <v>41.720807729999997</v>
+        <v>31</v>
+      </c>
+      <c r="F52">
+        <v>5.4396359680000002</v>
+      </c>
+      <c r="G52">
+        <v>68.424028870000001</v>
       </c>
       <c r="H52">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I52">
         <v>2022</v>
       </c>
-      <c r="J52">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="1">
-        <v>12.03002165</v>
-      </c>
-      <c r="G53" s="1">
-        <v>76.478500240000002</v>
+        <v>31</v>
+      </c>
+      <c r="F53">
+        <v>11.26563103</v>
+      </c>
+      <c r="G53">
+        <v>98.068662189999998</v>
       </c>
       <c r="H53">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I53">
         <v>2022</v>
       </c>
-      <c r="J53">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="1">
-        <v>11.46994168</v>
-      </c>
-      <c r="G54" s="1">
-        <v>71.890897469999999</v>
+        <v>31</v>
+      </c>
+      <c r="F54">
+        <v>12.03229739</v>
+      </c>
+      <c r="G54">
+        <v>103.0975722</v>
       </c>
       <c r="H54">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I54">
         <v>2022</v>
       </c>
-      <c r="J54">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="1">
-        <v>13.080727189999999</v>
-      </c>
-      <c r="G55" s="1">
-        <v>89.964779800000002</v>
+        <v>31</v>
+      </c>
+      <c r="F55">
+        <v>13.93754335</v>
+      </c>
+      <c r="G55">
+        <v>110.7496076</v>
       </c>
       <c r="H55">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I55">
         <v>2022</v>
       </c>
-      <c r="J55">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2887,27 +2675,24 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="1">
-        <v>36.570543129999997</v>
-      </c>
-      <c r="G56" s="1">
-        <v>63.169658869999999</v>
+        <v>31</v>
+      </c>
+      <c r="F56">
+        <v>39.122188180000002</v>
+      </c>
+      <c r="G56">
+        <v>97.062340980000002</v>
       </c>
       <c r="H56">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I56">
         <v>2022</v>
       </c>
-      <c r="J56">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2919,27 +2704,24 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="1">
-        <v>35.862522509999998</v>
-      </c>
-      <c r="G57" s="1">
-        <v>93.656294169999995</v>
+        <v>31</v>
+      </c>
+      <c r="F57">
+        <v>33.569869429999997</v>
+      </c>
+      <c r="G57">
+        <v>98.582862129999995</v>
       </c>
       <c r="H57">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I57">
         <v>2022</v>
       </c>
-      <c r="J57">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2951,30 +2733,27 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="1">
-        <v>33.811514379999998</v>
-      </c>
-      <c r="G58" s="1">
-        <v>61.071369240000003</v>
+        <v>31</v>
+      </c>
+      <c r="F58">
+        <v>38.077844089999999</v>
+      </c>
+      <c r="G58">
+        <v>92.338466069999996</v>
       </c>
       <c r="H58">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I58">
         <v>2022</v>
       </c>
-      <c r="J58">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -2983,30 +2762,27 @@
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="1">
-        <v>32.922491630000003</v>
-      </c>
-      <c r="G59" s="1">
-        <v>79.909845489999995</v>
+        <v>31</v>
+      </c>
+      <c r="F59">
+        <v>41.007436480000003</v>
+      </c>
+      <c r="G59">
+        <v>110.5655536</v>
       </c>
       <c r="H59">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I59">
         <v>2022</v>
       </c>
-      <c r="J59">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -3015,30 +2791,27 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="1">
-        <v>41.569603499999999</v>
-      </c>
-      <c r="G60" s="1">
-        <v>79.814399420000001</v>
+        <v>31</v>
+      </c>
+      <c r="F60">
+        <v>44.62649476</v>
+      </c>
+      <c r="G60">
+        <v>101.7331538</v>
       </c>
       <c r="H60">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I60">
         <v>2022</v>
       </c>
-      <c r="J60">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -3047,790 +2820,19 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="1">
-        <v>43.551548359999998</v>
-      </c>
-      <c r="G61" s="1">
-        <v>104.3227358</v>
+        <v>31</v>
+      </c>
+      <c r="F61">
+        <v>36.288856840000001</v>
+      </c>
+      <c r="G61">
+        <v>115.9923991</v>
       </c>
       <c r="H61">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="I61">
         <v>2022</v>
-      </c>
-      <c r="J61">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F62" s="1">
-        <v>7.4747269950000002</v>
-      </c>
-      <c r="G62" s="1">
-        <v>62.666963590000002</v>
-      </c>
-      <c r="H62">
-        <v>126</v>
-      </c>
-      <c r="I62">
-        <v>2022</v>
-      </c>
-      <c r="J62">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="1">
-        <v>9.7050746859999997</v>
-      </c>
-      <c r="G63" s="1">
-        <v>83.853165700000005</v>
-      </c>
-      <c r="H63">
-        <v>126</v>
-      </c>
-      <c r="I63">
-        <v>2022</v>
-      </c>
-      <c r="J63">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" t="s">
-        <v>32</v>
-      </c>
-      <c r="F64" s="1">
-        <v>5.4396359680000002</v>
-      </c>
-      <c r="G64" s="1">
-        <v>68.424028870000001</v>
-      </c>
-      <c r="H64">
-        <v>133</v>
-      </c>
-      <c r="I64">
-        <v>2022</v>
-      </c>
-      <c r="J64">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="1">
-        <v>11.26563103</v>
-      </c>
-      <c r="G65" s="1">
-        <v>98.068662189999998</v>
-      </c>
-      <c r="H65">
-        <v>126</v>
-      </c>
-      <c r="I65">
-        <v>2022</v>
-      </c>
-      <c r="J65">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="1">
-        <v>12.03229739</v>
-      </c>
-      <c r="G66" s="1">
-        <v>103.0975722</v>
-      </c>
-      <c r="H66">
-        <v>126</v>
-      </c>
-      <c r="I66">
-        <v>2022</v>
-      </c>
-      <c r="J66">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="1">
-        <v>13.93754335</v>
-      </c>
-      <c r="G67" s="1">
-        <v>110.7496076</v>
-      </c>
-      <c r="H67">
-        <v>133</v>
-      </c>
-      <c r="I67">
-        <v>2022</v>
-      </c>
-      <c r="J67">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" s="1">
-        <v>39.122188180000002</v>
-      </c>
-      <c r="G68" s="1">
-        <v>97.062340980000002</v>
-      </c>
-      <c r="H68">
-        <v>126</v>
-      </c>
-      <c r="I68">
-        <v>2022</v>
-      </c>
-      <c r="J68">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="1">
-        <v>33.569869429999997</v>
-      </c>
-      <c r="G69" s="1">
-        <v>98.582862129999995</v>
-      </c>
-      <c r="H69">
-        <v>126</v>
-      </c>
-      <c r="I69">
-        <v>2022</v>
-      </c>
-      <c r="J69">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="1">
-        <v>38.077844089999999</v>
-      </c>
-      <c r="G70" s="1">
-        <v>92.338466069999996</v>
-      </c>
-      <c r="H70">
-        <v>133</v>
-      </c>
-      <c r="I70">
-        <v>2022</v>
-      </c>
-      <c r="J70">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" s="1">
-        <v>41.007436480000003</v>
-      </c>
-      <c r="G71" s="1">
-        <v>110.5655536</v>
-      </c>
-      <c r="H71">
-        <v>126</v>
-      </c>
-      <c r="I71">
-        <v>2022</v>
-      </c>
-      <c r="J71">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="1">
-        <v>44.62649476</v>
-      </c>
-      <c r="G72" s="1">
-        <v>101.7331538</v>
-      </c>
-      <c r="H72">
-        <v>126</v>
-      </c>
-      <c r="I72">
-        <v>2022</v>
-      </c>
-      <c r="J72">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" s="1">
-        <v>36.288856840000001</v>
-      </c>
-      <c r="G73" s="1">
-        <v>115.9923991</v>
-      </c>
-      <c r="H73">
-        <v>133</v>
-      </c>
-      <c r="I73">
-        <v>2022</v>
-      </c>
-      <c r="J73">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>2021</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>2021</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>2021</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>2021</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>2021</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>2021</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="D80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>2022</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>2022</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>2022</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>2022</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84">
-        <v>5</v>
-      </c>
-      <c r="D84" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>2022</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>2022</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Soil_Fert_N_Crop_Uptake/15N_N_Uptake_MaturitySummed.xlsx
+++ b/Soil_Fert_N_Crop_Uptake/15N_N_Uptake_MaturitySummed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\UC Davis\School Work\Linquist Lab\Data\R stats\Phenols and 15N\Phenols and 15 Analysis\Crop Soil N and Fert N\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\15N-and-Phenols-California\Soil_Fert_N_Crop_Uptake\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Soil_Fert_N_Crop_Uptake/15N_N_Uptake_MaturitySummed.xlsx
+++ b/Soil_Fert_N_Crop_Uptake/15N_N_Uptake_MaturitySummed.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\15N-and-Phenols-California\N_Uptake_Calcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\15N-and-Phenols-California\Soil_Fert_N_Crop_Uptake\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$J$61</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1074,18 +1077,18 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J61"/>
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>102.43797323274265</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>86.535725415355969</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>101.86365055617831</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>118.07828215104048</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>98.351140650021492</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>86.070286984421898</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>82.9193545918056</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>75.579388947480183</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>68.985896920847182</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>90.177156586130707</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>83.59995620307248</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>80.977541975925575</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>130.7618821365993</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>114.92085986905259</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>107.1189822787038</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>145.72360251762868</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>108.15137557924464</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>128.23672123975823</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>91.392946589667304</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>102.60172154553996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>85.996263119907496</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>114.09554404011689</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>108.3400471001181</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>102.06156837950073</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>158.99007914918334</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>134.13327133999402</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>139.1221280761803</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>178.84836169316159</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>159.71937939861562</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>158.38848479335448</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>73.002620882863738</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>97.051142471018807</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>70.479815209739385</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>109.44428504892034</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>108.79560679991556</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>118.04721468212017</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>36.571145033149634</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>67.078422947221071</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>46.650535371603169</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>88.50852189449617</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>83.360839146847553</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>103.04550698994389</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>99.740201997947565</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>129.51881667882026</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>94.882883620146146</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>112.83233711603327</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>121.38400292671371</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>147.87428413031409</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>70.141690588503124</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>93.558240378851437</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>73.863664836549574</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>109.33429321889643</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>115.12986954378123</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>124.68715096491817</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>136.18452915436359</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>132.1527315529909</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>130.41631016118401</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>151.57299011681692</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>146.35964857216578</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -3095,6 +3098,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>